--- a/data/database/raw/Allocations database.xlsx
+++ b/data/database/raw/Allocations database.xlsx
@@ -7,11 +7,11 @@
     <sheet state="visible" name="Metadata" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_74A0E0BF_BD88_4654_8F37_D01D01158C83_.wvu.FilterData">Data!$A$1:$BF$253</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BDA3A827_4040_41B6_B77E_27D7BCC77D1E_.wvu.FilterData">Data!$A$1:$BF$253</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{74A0E0BF-BD88-4654-8F37-D01D01158C83}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BDA3A827-4040-41B6-B77E-27D7BCC77D1E}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6899" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6851" uniqueCount="1817">
   <si>
     <t>council</t>
   </si>
@@ -572,10 +572,10 @@
     <t>Trimester 1 (28%), Trimester 2 (34%), Trimester 3 (38%)</t>
   </si>
   <si>
-    <t>apportioned to each trimester according to seasonal fishing effort</t>
-  </si>
-  <si>
-    <t>common pool subsector only, set in mt for 2024, converted to percents</t>
+    <t>2013-2017</t>
+  </si>
+  <si>
+    <t>can be updated biennially based on most recent 5-year</t>
   </si>
   <si>
     <t>1996-2001</t>
@@ -4261,6 +4261,9 @@
     <t>commercial (7%), recreational (93%)</t>
   </si>
   <si>
+    <t>1997-2002</t>
+  </si>
+  <si>
     <t>Chinook salmon - Northern California Coast: Smith River</t>
   </si>
   <si>
@@ -4426,9 +4429,6 @@
     <t>Wahoo - Pacific</t>
   </si>
   <si>
-    <t>US, Pacific countries</t>
-  </si>
-  <si>
     <t>Pomfrets (Bramidae) - Pacific</t>
   </si>
   <si>
@@ -4736,9 +4736,6 @@
   </si>
   <si>
     <t>commercial (remainder), recreational (1209 mt)</t>
-  </si>
-  <si>
-    <t>2013-2017</t>
   </si>
   <si>
     <t>Tier 1-2 vessels (remainder), Tier 3 vessels (7% max)</t>
@@ -20787,10 +20784,10 @@
         <v>2.0</v>
       </c>
       <c r="AF146" s="5" t="s">
-        <v>260</v>
+        <v>742</v>
       </c>
       <c r="AG146" s="5" t="s">
-        <v>260</v>
+        <v>743</v>
       </c>
       <c r="AH146" s="5"/>
       <c r="AI146" s="5"/>
@@ -21117,10 +21114,10 @@
         <v>2.0</v>
       </c>
       <c r="AF149" s="5" t="s">
-        <v>260</v>
+        <v>742</v>
       </c>
       <c r="AG149" s="5" t="s">
-        <v>260</v>
+        <v>743</v>
       </c>
       <c r="AH149" s="6"/>
       <c r="AI149" s="6"/>
@@ -37416,10 +37413,10 @@
         <v>2.0</v>
       </c>
       <c r="AF345" s="8" t="s">
-        <v>260</v>
+        <v>1406</v>
       </c>
       <c r="AG345" s="5" t="s">
-        <v>1401</v>
+        <v>743</v>
       </c>
       <c r="AH345" s="5" t="s">
         <v>1402</v>
@@ -37462,10 +37459,10 @@
         <v>1134</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="F346" s="5" t="s">
         <v>1016</v>
@@ -37540,10 +37537,10 @@
         <v>1134</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="F347" s="5" t="s">
         <v>1016</v>
@@ -37618,10 +37615,10 @@
         <v>1134</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="F348" s="5" t="s">
         <v>1016</v>
@@ -37696,10 +37693,10 @@
         <v>1134</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="F349" s="5" t="s">
         <v>1016</v>
@@ -37774,10 +37771,10 @@
         <v>1134</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="F350" s="5" t="s">
         <v>1016</v>
@@ -37852,10 +37849,10 @@
         <v>1134</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="F351" s="5" t="s">
         <v>1016</v>
@@ -37930,10 +37927,10 @@
         <v>1134</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="F352" s="5" t="s">
         <v>1016</v>
@@ -38008,10 +38005,10 @@
         <v>1134</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="F353" s="5" t="s">
         <v>1016</v>
@@ -38086,10 +38083,10 @@
         <v>1134</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="F354" s="5" t="s">
         <v>1016</v>
@@ -38164,10 +38161,10 @@
         <v>1134</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="F355" s="5" t="s">
         <v>1016</v>
@@ -38242,10 +38239,10 @@
         <v>1134</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="F356" s="5" t="s">
         <v>1016</v>
@@ -38320,10 +38317,10 @@
         <v>1134</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="F357" s="5" t="s">
         <v>1016</v>
@@ -38398,10 +38395,10 @@
         <v>1134</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="F358" s="5" t="s">
         <v>1016</v>
@@ -38476,10 +38473,10 @@
         <v>1134</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="F359" s="5" t="s">
         <v>1016</v>
@@ -38554,10 +38551,10 @@
         <v>1134</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="F360" s="5" t="s">
         <v>1016</v>
@@ -38632,10 +38629,10 @@
         <v>1134</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="F361" s="5" t="s">
         <v>1016</v>
@@ -38710,10 +38707,10 @@
         <v>1134</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="F362" s="5" t="s">
         <v>1016</v>
@@ -38788,10 +38785,10 @@
         <v>1134</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="F363" s="5" t="s">
         <v>1016</v>
@@ -38866,10 +38863,10 @@
         <v>1134</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F364" s="5" t="s">
         <v>1016</v>
@@ -38944,10 +38941,10 @@
         <v>1134</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="F365" s="5" t="s">
         <v>1016</v>
@@ -39022,10 +39019,10 @@
         <v>1134</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="F366" s="5" t="s">
         <v>1016</v>
@@ -39100,10 +39097,10 @@
         <v>1134</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="F367" s="5" t="s">
         <v>1016</v>
@@ -39178,10 +39175,10 @@
         <v>1134</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="F368" s="5" t="s">
         <v>1016</v>
@@ -39256,10 +39253,10 @@
         <v>1134</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="F369" s="5" t="s">
         <v>1016</v>
@@ -39334,10 +39331,10 @@
         <v>1134</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="F370" s="5" t="s">
         <v>1016</v>
@@ -39412,10 +39409,10 @@
         <v>1134</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="F371" s="5" t="s">
         <v>1016</v>
@@ -39490,10 +39487,10 @@
         <v>1134</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="F372" s="5" t="s">
         <v>1016</v>
@@ -39568,10 +39565,10 @@
         <v>1134</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E373" s="4" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="F373" s="5" t="s">
         <v>1016</v>
@@ -39646,13 +39643,13 @@
         <v>1134</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>1202</v>
@@ -39724,13 +39721,13 @@
         <v>1134</v>
       </c>
       <c r="D375" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E375" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F375" s="5" t="s">
         <v>1436</v>
-      </c>
-      <c r="E375" s="4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F375" s="5" t="s">
-        <v>1435</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>1202</v>
@@ -39802,13 +39799,13 @@
         <v>1134</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G376" s="5" t="s">
         <v>1202</v>
@@ -39880,13 +39877,13 @@
         <v>1134</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>1202</v>
@@ -39958,13 +39955,13 @@
         <v>1134</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>1202</v>
@@ -40036,13 +40033,13 @@
         <v>1134</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E379" s="4" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>1202</v>
@@ -40114,13 +40111,13 @@
         <v>1134</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>1202</v>
@@ -40192,13 +40189,13 @@
         <v>1134</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>1202</v>
@@ -40270,13 +40267,13 @@
         <v>1134</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>1202</v>
@@ -40348,13 +40345,13 @@
         <v>1134</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>1202</v>
@@ -40426,13 +40423,13 @@
         <v>1134</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>1202</v>
@@ -40504,13 +40501,13 @@
         <v>1134</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>1202</v>
@@ -40582,13 +40579,13 @@
         <v>1134</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G386" s="5" t="s">
         <v>1202</v>
@@ -40660,13 +40657,13 @@
         <v>1134</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G387" s="5" t="s">
         <v>1202</v>
@@ -40738,13 +40735,13 @@
         <v>1134</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G388" s="5" t="s">
         <v>1202</v>
@@ -40816,13 +40813,13 @@
         <v>1134</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G389" s="5" t="s">
         <v>1202</v>
@@ -40894,13 +40891,13 @@
         <v>1134</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G390" s="5" t="s">
         <v>1202</v>
@@ -40972,13 +40969,13 @@
         <v>1134</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G391" s="5" t="s">
         <v>1202</v>
@@ -41050,13 +41047,13 @@
         <v>1134</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G392" s="5" t="s">
         <v>1202</v>
@@ -41128,13 +41125,13 @@
         <v>1134</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G393" s="5" t="s">
         <v>1202</v>
@@ -41206,13 +41203,13 @@
         <v>1134</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G394" s="5" t="s">
         <v>1202</v>
@@ -41284,16 +41281,16 @@
         <v>1134</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E395" s="4" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H395" s="5" t="s">
         <v>63</v>
@@ -41359,13 +41356,13 @@
         <v>624</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="F396" s="5" t="s">
         <v>339</v>
@@ -41378,17 +41375,11 @@
       </c>
       <c r="I396" s="6"/>
       <c r="J396" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K396" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L396" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M396" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K396" s="5"/>
+      <c r="L396" s="5"/>
+      <c r="M396" s="5"/>
       <c r="N396" s="6"/>
       <c r="O396" s="6"/>
       <c r="P396" s="6"/>
@@ -41443,7 +41434,7 @@
         <v>624</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>1462</v>
@@ -41462,17 +41453,11 @@
       </c>
       <c r="I397" s="6"/>
       <c r="J397" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K397" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L397" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M397" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K397" s="5"/>
+      <c r="L397" s="5"/>
+      <c r="M397" s="5"/>
       <c r="N397" s="6"/>
       <c r="O397" s="6"/>
       <c r="P397" s="6"/>
@@ -41527,7 +41512,7 @@
         <v>624</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>1465</v>
@@ -41546,17 +41531,11 @@
       </c>
       <c r="I398" s="6"/>
       <c r="J398" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K398" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L398" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M398" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K398" s="5"/>
+      <c r="L398" s="5"/>
+      <c r="M398" s="5"/>
       <c r="N398" s="6"/>
       <c r="O398" s="6"/>
       <c r="P398" s="6"/>
@@ -41611,7 +41590,7 @@
         <v>624</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>1466</v>
@@ -41630,17 +41609,11 @@
       </c>
       <c r="I399" s="6"/>
       <c r="J399" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K399" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L399" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M399" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K399" s="5"/>
+      <c r="L399" s="5"/>
+      <c r="M399" s="5"/>
       <c r="N399" s="6"/>
       <c r="O399" s="6"/>
       <c r="P399" s="6"/>
@@ -41695,7 +41668,7 @@
         <v>624</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>1467</v>
@@ -41714,17 +41687,11 @@
       </c>
       <c r="I400" s="6"/>
       <c r="J400" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K400" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L400" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M400" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K400" s="5"/>
+      <c r="L400" s="5"/>
+      <c r="M400" s="5"/>
       <c r="N400" s="6"/>
       <c r="O400" s="6"/>
       <c r="P400" s="6"/>
@@ -41779,7 +41746,7 @@
         <v>624</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>1470</v>
@@ -41798,17 +41765,11 @@
       </c>
       <c r="I401" s="6"/>
       <c r="J401" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K401" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L401" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M401" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K401" s="5"/>
+      <c r="L401" s="5"/>
+      <c r="M401" s="5"/>
       <c r="N401" s="6"/>
       <c r="O401" s="6"/>
       <c r="P401" s="6"/>
@@ -41863,7 +41824,7 @@
         <v>624</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>1473</v>
@@ -41882,17 +41843,11 @@
       </c>
       <c r="I402" s="6"/>
       <c r="J402" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K402" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L402" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M402" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K402" s="5"/>
+      <c r="L402" s="5"/>
+      <c r="M402" s="5"/>
       <c r="N402" s="6"/>
       <c r="O402" s="6"/>
       <c r="P402" s="6"/>
@@ -41947,7 +41902,7 @@
         <v>624</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>1474</v>
@@ -41966,17 +41921,11 @@
       </c>
       <c r="I403" s="6"/>
       <c r="J403" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K403" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L403" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M403" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K403" s="5"/>
+      <c r="L403" s="5"/>
+      <c r="M403" s="5"/>
       <c r="N403" s="6"/>
       <c r="O403" s="6"/>
       <c r="P403" s="6"/>
@@ -42031,7 +41980,7 @@
         <v>624</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>1477</v>
@@ -42050,17 +41999,11 @@
       </c>
       <c r="I404" s="6"/>
       <c r="J404" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K404" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L404" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M404" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K404" s="5"/>
+      <c r="L404" s="5"/>
+      <c r="M404" s="5"/>
       <c r="N404" s="6"/>
       <c r="O404" s="6"/>
       <c r="P404" s="6"/>
@@ -42115,7 +42058,7 @@
         <v>624</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>1480</v>
@@ -42134,17 +42077,11 @@
       </c>
       <c r="I405" s="6"/>
       <c r="J405" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K405" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L405" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M405" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K405" s="5"/>
+      <c r="L405" s="5"/>
+      <c r="M405" s="5"/>
       <c r="N405" s="6"/>
       <c r="O405" s="6"/>
       <c r="P405" s="6"/>
@@ -42199,7 +42136,7 @@
         <v>624</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>1483</v>
@@ -42218,17 +42155,11 @@
       </c>
       <c r="I406" s="6"/>
       <c r="J406" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K406" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L406" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M406" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K406" s="5"/>
+      <c r="L406" s="5"/>
+      <c r="M406" s="5"/>
       <c r="N406" s="6"/>
       <c r="O406" s="6"/>
       <c r="P406" s="6"/>
@@ -42283,7 +42214,7 @@
         <v>624</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>1484</v>
@@ -42302,17 +42233,11 @@
       </c>
       <c r="I407" s="6"/>
       <c r="J407" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K407" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L407" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M407" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K407" s="5"/>
+      <c r="L407" s="5"/>
+      <c r="M407" s="5"/>
       <c r="N407" s="6"/>
       <c r="O407" s="6"/>
       <c r="P407" s="6"/>
@@ -42367,7 +42292,7 @@
         <v>624</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>1487</v>
@@ -42386,17 +42311,11 @@
       </c>
       <c r="I408" s="6"/>
       <c r="J408" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K408" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L408" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M408" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K408" s="5"/>
+      <c r="L408" s="5"/>
+      <c r="M408" s="5"/>
       <c r="N408" s="6"/>
       <c r="O408" s="6"/>
       <c r="P408" s="6"/>
@@ -42451,7 +42370,7 @@
         <v>624</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>1490</v>
@@ -42470,17 +42389,11 @@
       </c>
       <c r="I409" s="6"/>
       <c r="J409" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K409" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L409" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M409" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K409" s="5"/>
+      <c r="L409" s="5"/>
+      <c r="M409" s="5"/>
       <c r="N409" s="6"/>
       <c r="O409" s="6"/>
       <c r="P409" s="6"/>
@@ -42535,7 +42448,7 @@
         <v>624</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>1491</v>
@@ -42554,17 +42467,11 @@
       </c>
       <c r="I410" s="6"/>
       <c r="J410" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K410" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L410" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M410" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K410" s="5"/>
+      <c r="L410" s="5"/>
+      <c r="M410" s="5"/>
       <c r="N410" s="6"/>
       <c r="O410" s="6"/>
       <c r="P410" s="6"/>
@@ -42619,7 +42526,7 @@
         <v>624</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>1494</v>
@@ -42638,17 +42545,11 @@
       </c>
       <c r="I411" s="6"/>
       <c r="J411" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K411" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L411" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M411" s="5" t="s">
-        <v>1461</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K411" s="5"/>
+      <c r="L411" s="5"/>
+      <c r="M411" s="5"/>
       <c r="N411" s="6"/>
       <c r="O411" s="6"/>
       <c r="P411" s="6"/>
@@ -44238,7 +44139,7 @@
         <v>2.0</v>
       </c>
       <c r="AF430" s="5" t="s">
-        <v>1565</v>
+        <v>177</v>
       </c>
       <c r="AG430" s="5" t="s">
         <v>273</v>
@@ -44249,7 +44150,7 @@
       </c>
       <c r="AJ430" s="6"/>
       <c r="AK430" s="5" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="AL430" s="5" t="s">
         <v>1554</v>
@@ -44258,7 +44159,7 @@
         <v>2.0</v>
       </c>
       <c r="AN430" s="5" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="AO430" s="5"/>
       <c r="AP430" s="5"/>
@@ -44287,19 +44188,19 @@
         <v>347</v>
       </c>
       <c r="C431" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D431" s="3" t="s">
         <v>1568</v>
       </c>
-      <c r="D431" s="3" t="s">
+      <c r="E431" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F431" s="5" t="s">
         <v>1569</v>
       </c>
-      <c r="E431" s="4" t="s">
-        <v>1569</v>
-      </c>
-      <c r="F431" s="5" t="s">
+      <c r="G431" s="5" t="s">
         <v>1570</v>
-      </c>
-      <c r="G431" s="5" t="s">
-        <v>1571</v>
       </c>
       <c r="H431" s="5" t="s">
         <v>64</v>
@@ -44365,19 +44266,19 @@
         <v>347</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D432" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E432" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F432" s="5" t="s">
         <v>1572</v>
       </c>
-      <c r="E432" s="4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="F432" s="5" t="s">
+      <c r="G432" s="5" t="s">
         <v>1573</v>
-      </c>
-      <c r="G432" s="5" t="s">
-        <v>1574</v>
       </c>
       <c r="H432" s="5" t="s">
         <v>64</v>
@@ -44443,19 +44344,19 @@
         <v>347</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D433" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E433" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F433" s="5" t="s">
         <v>1575</v>
       </c>
-      <c r="E433" s="4" t="s">
-        <v>1575</v>
-      </c>
-      <c r="F433" s="5" t="s">
+      <c r="G433" s="5" t="s">
         <v>1576</v>
-      </c>
-      <c r="G433" s="5" t="s">
-        <v>1577</v>
       </c>
       <c r="H433" s="5" t="s">
         <v>64</v>
@@ -44521,19 +44422,19 @@
         <v>347</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D434" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E434" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F434" s="5" t="s">
         <v>1578</v>
       </c>
-      <c r="E434" s="4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="F434" s="5" t="s">
+      <c r="G434" s="5" t="s">
         <v>1579</v>
-      </c>
-      <c r="G434" s="5" t="s">
-        <v>1580</v>
       </c>
       <c r="H434" s="5" t="s">
         <v>64</v>
@@ -44599,19 +44500,19 @@
         <v>411</v>
       </c>
       <c r="C435" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D435" s="3" t="s">
         <v>1581</v>
       </c>
-      <c r="D435" s="3" t="s">
-        <v>1582</v>
-      </c>
       <c r="E435" s="4" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="F435" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G435" s="5" t="s">
         <v>1570</v>
-      </c>
-      <c r="G435" s="5" t="s">
-        <v>1571</v>
       </c>
       <c r="H435" s="5" t="s">
         <v>64</v>
@@ -44677,19 +44578,19 @@
         <v>411</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="F436" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G436" s="5" t="s">
         <v>1573</v>
-      </c>
-      <c r="G436" s="5" t="s">
-        <v>1574</v>
       </c>
       <c r="H436" s="5" t="s">
         <v>64</v>
@@ -44755,19 +44656,19 @@
         <v>411</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="F437" s="5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G437" s="5" t="s">
         <v>1579</v>
-      </c>
-      <c r="G437" s="5" t="s">
-        <v>1580</v>
       </c>
       <c r="H437" s="5" t="s">
         <v>64</v>
@@ -44833,19 +44734,19 @@
         <v>411</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D438" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E438" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F438" s="5" t="s">
         <v>1585</v>
       </c>
-      <c r="E438" s="4" t="s">
-        <v>1585</v>
-      </c>
-      <c r="F438" s="5" t="s">
+      <c r="G438" s="5" t="s">
         <v>1586</v>
-      </c>
-      <c r="G438" s="5" t="s">
-        <v>1587</v>
       </c>
       <c r="H438" s="5" t="s">
         <v>64</v>
@@ -44914,16 +44815,16 @@
         <v>829</v>
       </c>
       <c r="D439" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E439" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F439" s="5" t="s">
         <v>1588</v>
       </c>
-      <c r="E439" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F439" s="5" t="s">
+      <c r="G439" s="5" t="s">
         <v>1589</v>
-      </c>
-      <c r="G439" s="5" t="s">
-        <v>1590</v>
       </c>
       <c r="H439" s="5" t="s">
         <v>63</v>
@@ -44956,7 +44857,7 @@
       </c>
       <c r="AC439" s="8"/>
       <c r="AD439" s="8" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="AE439" s="8">
         <v>2.0</v>
@@ -45008,16 +44909,16 @@
         <v>829</v>
       </c>
       <c r="D440" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E440" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F440" s="5" t="s">
         <v>1592</v>
       </c>
-      <c r="E440" s="4" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F440" s="5" t="s">
+      <c r="G440" s="5" t="s">
         <v>1593</v>
-      </c>
-      <c r="G440" s="5" t="s">
-        <v>1594</v>
       </c>
       <c r="H440" s="5" t="s">
         <v>64</v>
@@ -45050,7 +44951,7 @@
       </c>
       <c r="AC440" s="8"/>
       <c r="AD440" s="8" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="AE440" s="8">
         <v>2.0</v>
@@ -45102,10 +45003,10 @@
         <v>829</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E441" s="4" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="F441" s="5" t="s">
         <v>767</v>
@@ -45144,7 +45045,7 @@
       </c>
       <c r="AC441" s="8"/>
       <c r="AD441" s="8" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="AE441" s="8">
         <v>2.0</v>
@@ -45194,10 +45095,10 @@
         <v>829</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F442" s="5" t="s">
         <v>772</v>
@@ -45236,7 +45137,7 @@
       </c>
       <c r="AC442" s="8"/>
       <c r="AD442" s="8" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="AE442" s="8">
         <v>2.0</v>
@@ -45286,10 +45187,10 @@
         <v>829</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E443" s="4" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F443" s="5" t="s">
         <v>807</v>
@@ -45328,13 +45229,13 @@
       </c>
       <c r="AC443" s="8"/>
       <c r="AD443" s="8" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AE443" s="8">
         <v>2.0</v>
       </c>
       <c r="AF443" s="8" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AG443" s="8" t="s">
         <v>273</v>
@@ -45380,10 +45281,10 @@
         <v>829</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="F444" s="5" t="s">
         <v>739</v>
@@ -45422,7 +45323,7 @@
       </c>
       <c r="AC444" s="8"/>
       <c r="AD444" s="8" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="AE444" s="8">
         <v>2.0</v>
@@ -45474,10 +45375,10 @@
         <v>829</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="F445" s="5" t="s">
         <v>814</v>
@@ -45516,7 +45417,7 @@
       </c>
       <c r="AC445" s="8"/>
       <c r="AD445" s="8" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="AE445" s="8">
         <v>2.0</v>
@@ -45566,10 +45467,10 @@
         <v>829</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="F446" s="5" t="s">
         <v>752</v>
@@ -45608,7 +45509,7 @@
       </c>
       <c r="AC446" s="8"/>
       <c r="AD446" s="8" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="AE446" s="8">
         <v>2.0</v>
@@ -45620,7 +45521,7 @@
         <v>273</v>
       </c>
       <c r="AH446" s="8" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="AI446" s="10"/>
       <c r="AJ446" s="10"/>
@@ -45662,16 +45563,16 @@
         <v>829</v>
       </c>
       <c r="D447" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E447" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F447" s="5" t="s">
         <v>1610</v>
       </c>
-      <c r="E447" s="4" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F447" s="5" t="s">
+      <c r="G447" s="14" t="s">
         <v>1611</v>
-      </c>
-      <c r="G447" s="14" t="s">
-        <v>1612</v>
       </c>
       <c r="H447" s="5" t="s">
         <v>64</v>
@@ -45704,7 +45605,7 @@
       </c>
       <c r="AC447" s="8"/>
       <c r="AD447" s="8" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="AE447" s="8">
         <v>2.0</v>
@@ -45756,16 +45657,16 @@
         <v>829</v>
       </c>
       <c r="D448" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E448" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F448" s="5" t="s">
         <v>1614</v>
       </c>
-      <c r="E448" s="4" t="s">
-        <v>1614</v>
-      </c>
-      <c r="F448" s="5" t="s">
+      <c r="G448" s="5" t="s">
         <v>1615</v>
-      </c>
-      <c r="G448" s="5" t="s">
-        <v>1616</v>
       </c>
       <c r="H448" s="5" t="s">
         <v>64</v>
@@ -45798,7 +45699,7 @@
       </c>
       <c r="AC448" s="8"/>
       <c r="AD448" s="8" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="AE448" s="8">
         <v>2.0</v>
@@ -45850,16 +45751,16 @@
         <v>829</v>
       </c>
       <c r="D449" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E449" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F449" s="5" t="s">
         <v>1618</v>
       </c>
-      <c r="E449" s="4" t="s">
-        <v>1618</v>
-      </c>
-      <c r="F449" s="5" t="s">
+      <c r="G449" s="5" t="s">
         <v>1619</v>
-      </c>
-      <c r="G449" s="5" t="s">
-        <v>1620</v>
       </c>
       <c r="H449" s="5" t="s">
         <v>63</v>
@@ -45894,7 +45795,7 @@
       </c>
       <c r="AC449" s="8"/>
       <c r="AD449" s="8" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AE449" s="8">
         <v>2.0</v>
@@ -45948,10 +45849,10 @@
         <v>829</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E450" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F450" s="5" t="s">
         <v>1546</v>
@@ -45990,7 +45891,7 @@
       </c>
       <c r="AC450" s="8"/>
       <c r="AD450" s="8" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="AE450" s="8">
         <v>2.0</v>
@@ -46042,10 +45943,10 @@
         <v>829</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E451" s="4" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F451" s="5" t="s">
         <v>702</v>
@@ -46084,7 +45985,7 @@
       </c>
       <c r="AC451" s="8"/>
       <c r="AD451" s="8" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="AE451" s="8">
         <v>2.0</v>
@@ -46124,7 +46025,7 @@
       <c r="BD451" s="6"/>
       <c r="BE451" s="6"/>
       <c r="BF451" s="5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="452">
@@ -46138,16 +46039,16 @@
         <v>829</v>
       </c>
       <c r="D452" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E452" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F452" s="5" t="s">
         <v>1627</v>
       </c>
-      <c r="E452" s="4" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F452" s="5" t="s">
+      <c r="G452" s="5" t="s">
         <v>1628</v>
-      </c>
-      <c r="G452" s="5" t="s">
-        <v>1629</v>
       </c>
       <c r="H452" s="5" t="s">
         <v>64</v>
@@ -46180,7 +46081,7 @@
       </c>
       <c r="AC452" s="8"/>
       <c r="AD452" s="8" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="AE452" s="8">
         <v>2.0</v>
@@ -46232,10 +46133,10 @@
         <v>829</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E453" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="F453" s="5" t="s">
         <v>702</v>
@@ -46274,7 +46175,7 @@
       </c>
       <c r="AC453" s="8"/>
       <c r="AD453" s="8" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="AE453" s="8">
         <v>2.0</v>
@@ -46314,7 +46215,7 @@
       <c r="BD453" s="6"/>
       <c r="BE453" s="6"/>
       <c r="BF453" s="5" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="454">
@@ -46328,10 +46229,10 @@
         <v>306</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E454" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="F454" s="5" t="s">
         <v>279</v>
@@ -46377,7 +46278,7 @@
       </c>
       <c r="AJ454" s="6"/>
       <c r="AK454" s="5" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="AL454" s="5" t="s">
         <v>282</v>
@@ -46386,10 +46287,10 @@
         <v>15.0</v>
       </c>
       <c r="AN454" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AO454" s="5" t="s">
         <v>1636</v>
-      </c>
-      <c r="AO454" s="5" t="s">
-        <v>1637</v>
       </c>
       <c r="AP454" s="5" t="s">
         <v>64</v>
@@ -46402,7 +46303,7 @@
       </c>
       <c r="AS454" s="6"/>
       <c r="AT454" s="5" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="AU454" s="6"/>
       <c r="AV454" s="6"/>
@@ -46428,16 +46329,16 @@
         <v>829</v>
       </c>
       <c r="D455" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E455" s="8" t="s">
         <v>1639</v>
       </c>
-      <c r="E455" s="8" t="s">
+      <c r="F455" s="5" t="s">
         <v>1640</v>
       </c>
-      <c r="F455" s="5" t="s">
+      <c r="G455" s="5" t="s">
         <v>1641</v>
-      </c>
-      <c r="G455" s="5" t="s">
-        <v>1642</v>
       </c>
       <c r="H455" s="5" t="s">
         <v>63</v>
@@ -46482,7 +46383,7 @@
         <v>273</v>
       </c>
       <c r="AH455" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="AI455" s="8"/>
       <c r="AJ455" s="8"/>
@@ -46524,16 +46425,16 @@
         <v>829</v>
       </c>
       <c r="D456" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E456" s="8" t="s">
         <v>1644</v>
       </c>
-      <c r="E456" s="8" t="s">
+      <c r="F456" s="5" t="s">
         <v>1645</v>
       </c>
-      <c r="F456" s="5" t="s">
+      <c r="G456" s="5" t="s">
         <v>1646</v>
-      </c>
-      <c r="G456" s="5" t="s">
-        <v>1647</v>
       </c>
       <c r="H456" s="5" t="s">
         <v>63</v>
@@ -46578,7 +46479,7 @@
         <v>273</v>
       </c>
       <c r="AH456" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="AI456" s="8"/>
       <c r="AJ456" s="8"/>
@@ -46620,16 +46521,16 @@
         <v>829</v>
       </c>
       <c r="D457" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E457" s="8" t="s">
         <v>1648</v>
-      </c>
-      <c r="E457" s="8" t="s">
-        <v>1649</v>
       </c>
       <c r="F457" s="5" t="s">
         <v>900</v>
       </c>
       <c r="G457" s="5" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H457" s="5" t="s">
         <v>63</v>
@@ -46674,7 +46575,7 @@
         <v>273</v>
       </c>
       <c r="AH457" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="AI457" s="8"/>
       <c r="AJ457" s="8"/>
@@ -46716,16 +46617,16 @@
         <v>829</v>
       </c>
       <c r="D458" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E458" s="8" t="s">
         <v>1651</v>
-      </c>
-      <c r="E458" s="8" t="s">
-        <v>1652</v>
       </c>
       <c r="F458" s="5" t="s">
         <v>1550</v>
       </c>
       <c r="G458" s="5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H458" s="5" t="s">
         <v>63</v>
@@ -46770,7 +46671,7 @@
         <v>273</v>
       </c>
       <c r="AH458" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="AI458" s="8"/>
       <c r="AJ458" s="8"/>
@@ -46812,16 +46713,16 @@
         <v>829</v>
       </c>
       <c r="D459" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E459" s="8" t="s">
         <v>1654</v>
       </c>
-      <c r="E459" s="8" t="s">
+      <c r="F459" s="5" t="s">
         <v>1655</v>
       </c>
-      <c r="F459" s="5" t="s">
+      <c r="G459" s="5" t="s">
         <v>1656</v>
-      </c>
-      <c r="G459" s="5" t="s">
-        <v>1657</v>
       </c>
       <c r="H459" s="5" t="s">
         <v>63</v>
@@ -46866,7 +46767,7 @@
         <v>273</v>
       </c>
       <c r="AH459" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="AI459" s="8"/>
       <c r="AJ459" s="8"/>
@@ -46908,16 +46809,16 @@
         <v>829</v>
       </c>
       <c r="D460" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E460" s="8" t="s">
         <v>1658</v>
       </c>
-      <c r="E460" s="8" t="s">
+      <c r="F460" s="5" t="s">
         <v>1659</v>
       </c>
-      <c r="F460" s="5" t="s">
+      <c r="G460" s="5" t="s">
         <v>1660</v>
-      </c>
-      <c r="G460" s="5" t="s">
-        <v>1661</v>
       </c>
       <c r="H460" s="5" t="s">
         <v>63</v>
@@ -46962,7 +46863,7 @@
         <v>273</v>
       </c>
       <c r="AH460" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="AI460" s="8"/>
       <c r="AJ460" s="8"/>
@@ -47004,10 +46905,10 @@
         <v>412</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F461" s="5" t="s">
         <v>414</v>
@@ -47039,13 +46940,13 @@
         <v>64</v>
       </c>
       <c r="W461" s="5" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="X461" s="8">
         <v>2.0</v>
       </c>
       <c r="Y461" s="5" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="Z461" s="8"/>
       <c r="AA461" s="5" t="s">
@@ -47056,7 +46957,7 @@
       </c>
       <c r="AC461" s="8"/>
       <c r="AD461" s="8" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="AE461" s="5">
         <v>2.0</v>
@@ -47081,13 +46982,13 @@
         <v>64</v>
       </c>
       <c r="AQ461" s="5" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="AR461" s="8">
         <v>2.0</v>
       </c>
       <c r="AS461" s="8" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="AT461" s="10"/>
       <c r="AU461" s="5"/>
@@ -47116,16 +47017,16 @@
         <v>348</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F462" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G462" s="5" t="s">
         <v>1593</v>
-      </c>
-      <c r="G462" s="5" t="s">
-        <v>1594</v>
       </c>
       <c r="H462" s="5" t="s">
         <v>64</v>
@@ -47146,16 +47047,16 @@
         <v>64</v>
       </c>
       <c r="R462" s="5" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="S462" s="5">
         <v>5.0</v>
       </c>
       <c r="T462" s="5" t="s">
+        <v>1669</v>
+      </c>
+      <c r="U462" s="5" t="s">
         <v>1670</v>
-      </c>
-      <c r="U462" s="5" t="s">
-        <v>1671</v>
       </c>
       <c r="V462" s="6"/>
       <c r="W462" s="6"/>
@@ -47170,13 +47071,13 @@
       </c>
       <c r="AC462" s="5"/>
       <c r="AD462" s="5" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="AE462" s="5">
         <v>2.0</v>
       </c>
       <c r="AF462" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="AG462" s="5" t="s">
         <v>743</v>
@@ -47186,17 +47087,17 @@
         <v>64</v>
       </c>
       <c r="AJ462" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="AK462" s="6"/>
       <c r="AL462" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="AM462" s="5">
         <v>2.0</v>
       </c>
       <c r="AN462" s="5" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="AO462" s="6"/>
       <c r="AP462" s="6"/>
@@ -47214,7 +47115,7 @@
         <v>112</v>
       </c>
       <c r="AX462" s="5" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="AY462" s="5">
         <v>6.0</v>
@@ -47230,10 +47131,10 @@
       </c>
       <c r="BC462" s="5"/>
       <c r="BD462" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="BE462" s="5" t="s">
         <v>1678</v>
-      </c>
-      <c r="BE462" s="5" t="s">
-        <v>1679</v>
       </c>
       <c r="BF462" s="6"/>
     </row>
@@ -47248,10 +47149,10 @@
         <v>829</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F463" s="5" t="s">
         <v>877</v>
@@ -47329,19 +47230,19 @@
         <v>411</v>
       </c>
       <c r="C464" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D464" s="3" t="s">
         <v>1681</v>
       </c>
-      <c r="D464" s="3" t="s">
+      <c r="E464" s="4" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F464" s="5" t="s">
         <v>1682</v>
       </c>
-      <c r="E464" s="4" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F464" s="5" t="s">
+      <c r="G464" s="5" t="s">
         <v>1683</v>
-      </c>
-      <c r="G464" s="5" t="s">
-        <v>1684</v>
       </c>
       <c r="H464" s="5" t="s">
         <v>64</v>
@@ -47367,7 +47268,7 @@
         <v>64</v>
       </c>
       <c r="W464" s="5" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="X464" s="5">
         <v>2.0</v>
@@ -47384,19 +47285,19 @@
       </c>
       <c r="AC464" s="5"/>
       <c r="AD464" s="5" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="AE464" s="5">
         <v>2.0</v>
       </c>
       <c r="AF464" s="5" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="AG464" s="5" t="s">
         <v>273</v>
       </c>
       <c r="AH464" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="AI464" s="5"/>
       <c r="AJ464" s="5"/>
@@ -47422,7 +47323,7 @@
       <c r="BD464" s="5"/>
       <c r="BE464" s="5"/>
       <c r="BF464" s="5" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="465">
@@ -47436,16 +47337,16 @@
         <v>412</v>
       </c>
       <c r="D465" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E465" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F465" s="5" t="s">
         <v>1690</v>
       </c>
-      <c r="E465" s="4" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F465" s="5" t="s">
+      <c r="G465" s="5" t="s">
         <v>1691</v>
-      </c>
-      <c r="G465" s="5" t="s">
-        <v>1692</v>
       </c>
       <c r="H465" s="5" t="s">
         <v>64</v>
@@ -47484,7 +47385,7 @@
         <v>2.0</v>
       </c>
       <c r="AF465" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="AG465" s="5" t="s">
         <v>273</v>
@@ -47516,7 +47417,7 @@
       <c r="BD465" s="6"/>
       <c r="BE465" s="6"/>
       <c r="BF465" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="466">
@@ -47527,13 +47428,13 @@
         <v>411</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E466" s="4" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F466" s="5" t="s">
         <v>873</v>
@@ -47604,7 +47505,7 @@
       <c r="BD466" s="6"/>
       <c r="BE466" s="6"/>
       <c r="BF466" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="467">
@@ -47615,13 +47516,13 @@
         <v>88</v>
       </c>
       <c r="C467" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D467" s="3" t="s">
         <v>1697</v>
       </c>
-      <c r="D467" s="3" t="s">
-        <v>1698</v>
-      </c>
       <c r="E467" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F467" s="5" t="s">
         <v>573</v>
@@ -47648,16 +47549,16 @@
         <v>64</v>
       </c>
       <c r="R467" s="5" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="S467" s="5">
         <v>7.0</v>
       </c>
       <c r="T467" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="U467" s="5" t="s">
         <v>1700</v>
-      </c>
-      <c r="U467" s="5" t="s">
-        <v>1701</v>
       </c>
       <c r="V467" s="6"/>
       <c r="W467" s="6"/>
@@ -47705,13 +47606,13 @@
         <v>347</v>
       </c>
       <c r="C468" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D468" s="3" t="s">
         <v>1702</v>
       </c>
-      <c r="D468" s="3" t="s">
-        <v>1703</v>
-      </c>
       <c r="E468" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F468" s="5" t="s">
         <v>1519</v>
@@ -47783,13 +47684,13 @@
         <v>252</v>
       </c>
       <c r="C469" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D469" s="3" t="s">
         <v>1704</v>
       </c>
-      <c r="D469" s="3" t="s">
-        <v>1705</v>
-      </c>
       <c r="E469" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F469" s="5" t="s">
         <v>1519</v>
@@ -47863,13 +47764,13 @@
         <v>252</v>
       </c>
       <c r="C470" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D470" s="3" t="s">
         <v>1706</v>
       </c>
-      <c r="D470" s="3" t="s">
-        <v>1707</v>
-      </c>
       <c r="E470" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F470" s="5" t="s">
         <v>1519</v>
@@ -47946,16 +47847,16 @@
         <v>412</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E471" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="F471" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G471" s="5" t="s">
         <v>1691</v>
-      </c>
-      <c r="G471" s="5" t="s">
-        <v>1692</v>
       </c>
       <c r="H471" s="5" t="s">
         <v>64</v>
@@ -47988,7 +47889,7 @@
       </c>
       <c r="AC471" s="8"/>
       <c r="AD471" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="AE471" s="5">
         <v>2.0</v>
@@ -48026,7 +47927,7 @@
       <c r="BD471" s="6"/>
       <c r="BE471" s="6"/>
       <c r="BF471" s="5" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="472">
@@ -48040,16 +47941,16 @@
         <v>412</v>
       </c>
       <c r="D472" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E472" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F472" s="5" t="s">
         <v>1711</v>
       </c>
-      <c r="E472" s="4" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F472" s="5" t="s">
+      <c r="G472" s="5" t="s">
         <v>1712</v>
-      </c>
-      <c r="G472" s="5" t="s">
-        <v>1713</v>
       </c>
       <c r="H472" s="5" t="s">
         <v>64</v>
@@ -48082,19 +47983,19 @@
       </c>
       <c r="AC472" s="8"/>
       <c r="AD472" s="8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="AE472" s="5">
         <v>2.0</v>
       </c>
       <c r="AF472" s="8" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="AG472" s="8" t="s">
         <v>273</v>
       </c>
       <c r="AH472" s="8" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="AI472" s="10"/>
       <c r="AJ472" s="10"/>
@@ -48122,7 +48023,7 @@
       <c r="BD472" s="6"/>
       <c r="BE472" s="6"/>
       <c r="BF472" s="5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="473">
@@ -48133,13 +48034,13 @@
         <v>411</v>
       </c>
       <c r="C473" s="11" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D473" s="11" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E473" s="4" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F473" s="5" t="s">
         <v>726</v>
@@ -48171,13 +48072,13 @@
         <v>64</v>
       </c>
       <c r="W473" s="5" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="X473" s="5">
         <v>2.0</v>
       </c>
       <c r="Y473" s="5" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Z473" s="5"/>
       <c r="AA473" s="5" t="s">
@@ -48188,7 +48089,7 @@
       </c>
       <c r="AC473" s="8"/>
       <c r="AD473" s="8" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AE473" s="8">
         <v>2.0</v>
@@ -48200,7 +48101,7 @@
         <v>273</v>
       </c>
       <c r="AH473" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="AI473" s="5"/>
       <c r="AJ473" s="5"/>
@@ -48232,7 +48133,7 @@
       <c r="BD473" s="5"/>
       <c r="BE473" s="5"/>
       <c r="BF473" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="474">
@@ -48243,13 +48144,13 @@
         <v>411</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E474" s="4" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F474" s="5" t="s">
         <v>908</v>
@@ -48281,13 +48182,13 @@
         <v>64</v>
       </c>
       <c r="W474" s="5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="X474" s="5">
         <v>2.0</v>
       </c>
       <c r="Y474" s="5" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="Z474" s="5"/>
       <c r="AA474" s="5" t="s">
@@ -48298,7 +48199,7 @@
       </c>
       <c r="AC474" s="5"/>
       <c r="AD474" s="5" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="AE474" s="8">
         <v>2.0</v>
@@ -48310,7 +48211,7 @@
         <v>273</v>
       </c>
       <c r="AH474" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="AI474" s="5"/>
       <c r="AJ474" s="5"/>
@@ -48342,30 +48243,30 @@
       <c r="BD474" s="6"/>
       <c r="BE474" s="6"/>
       <c r="BF474" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B475" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="C475" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C475" s="3" t="s">
+      <c r="D475" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="D475" s="3" t="s">
+      <c r="E475" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F475" s="5" t="s">
         <v>1731</v>
       </c>
-      <c r="E475" s="4" t="s">
-        <v>1731</v>
-      </c>
-      <c r="F475" s="5" t="s">
+      <c r="G475" s="5" t="s">
         <v>1732</v>
-      </c>
-      <c r="G475" s="5" t="s">
-        <v>1733</v>
       </c>
       <c r="H475" s="5" t="s">
         <v>63</v>
@@ -48425,25 +48326,25 @@
     </row>
     <row r="476">
       <c r="A476" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B476" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="C476" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C476" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D476" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E476" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F476" s="5" t="s">
         <v>1734</v>
       </c>
-      <c r="E476" s="4" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F476" s="5" t="s">
+      <c r="G476" s="5" t="s">
         <v>1735</v>
-      </c>
-      <c r="G476" s="5" t="s">
-        <v>1736</v>
       </c>
       <c r="H476" s="5" t="s">
         <v>63</v>
@@ -48503,19 +48404,19 @@
     </row>
     <row r="477">
       <c r="A477" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B477" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B477" s="3" t="s">
+      <c r="C477" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C477" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D477" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F477" s="5" t="s">
         <v>1095</v>
@@ -48581,19 +48482,19 @@
     </row>
     <row r="478">
       <c r="A478" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B478" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B478" s="3" t="s">
+      <c r="C478" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C478" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D478" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E478" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F478" s="5" t="s">
         <v>1404</v>
@@ -48659,19 +48560,19 @@
     </row>
     <row r="479">
       <c r="A479" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B479" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B479" s="3" t="s">
+      <c r="C479" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C479" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D479" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E479" s="4" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F479" s="5" t="s">
         <v>1069</v>
@@ -48737,31 +48638,31 @@
     </row>
     <row r="480">
       <c r="A480" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B480" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B480" s="3" t="s">
+      <c r="C480" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C480" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D480" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E480" s="4" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F480" s="5" t="s">
         <v>1740</v>
       </c>
-      <c r="E480" s="4" t="s">
-        <v>1740</v>
-      </c>
-      <c r="F480" s="5" t="s">
+      <c r="G480" s="5" t="s">
         <v>1741</v>
-      </c>
-      <c r="G480" s="5" t="s">
-        <v>1742</v>
       </c>
       <c r="H480" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I480" s="5" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="J480" s="5" t="s">
         <v>63</v>
@@ -48790,7 +48691,7 @@
       <c r="AF480" s="6"/>
       <c r="AG480" s="6"/>
       <c r="AH480" s="5" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="AI480" s="6"/>
       <c r="AJ480" s="6"/>
@@ -48816,36 +48717,36 @@
       <c r="BD480" s="6"/>
       <c r="BE480" s="6"/>
       <c r="BF480" s="5" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B481" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B481" s="3" t="s">
+      <c r="C481" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C481" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D481" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F481" s="5" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G481" s="5" t="s">
         <v>1741</v>
-      </c>
-      <c r="G481" s="5" t="s">
-        <v>1742</v>
       </c>
       <c r="H481" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I481" s="5" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="J481" s="5" t="s">
         <v>63</v>
@@ -48874,7 +48775,7 @@
       <c r="AF481" s="6"/>
       <c r="AG481" s="6"/>
       <c r="AH481" s="5" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="AI481" s="6"/>
       <c r="AJ481" s="6"/>
@@ -48900,24 +48801,24 @@
       <c r="BD481" s="5"/>
       <c r="BE481" s="5"/>
       <c r="BF481" s="5" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B482" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B482" s="3" t="s">
+      <c r="C482" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C482" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D482" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E482" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F482" s="5" t="s">
         <v>1075</v>
@@ -48983,19 +48884,19 @@
     </row>
     <row r="483">
       <c r="A483" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B483" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B483" s="3" t="s">
+      <c r="C483" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C483" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D483" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F483" s="5" t="s">
         <v>1075</v>
@@ -49061,19 +48962,19 @@
     </row>
     <row r="484">
       <c r="A484" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B484" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="C484" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C484" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D484" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F484" s="5" t="s">
         <v>1012</v>
@@ -49139,19 +49040,19 @@
     </row>
     <row r="485">
       <c r="A485" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B485" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="C485" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C485" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D485" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E485" s="4" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F485" s="5" t="s">
         <v>143</v>
@@ -49217,19 +49118,19 @@
     </row>
     <row r="486">
       <c r="A486" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B486" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B486" s="3" t="s">
+      <c r="C486" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C486" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D486" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E486" s="4" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F486" s="5" t="s">
         <v>1104</v>
@@ -49295,19 +49196,19 @@
     </row>
     <row r="487">
       <c r="A487" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B487" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B487" s="3" t="s">
+      <c r="C487" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C487" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D487" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E487" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F487" s="5" t="s">
         <v>1104</v>
@@ -49373,19 +49274,19 @@
     </row>
     <row r="488">
       <c r="A488" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B488" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B488" s="3" t="s">
+      <c r="C488" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C488" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D488" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E488" s="4" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="F488" s="5" t="s">
         <v>996</v>
@@ -49451,19 +49352,19 @@
     </row>
     <row r="489">
       <c r="A489" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B489" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B489" s="3" t="s">
+      <c r="C489" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C489" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D489" s="3" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E489" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="F489" s="5" t="s">
         <v>996</v>
@@ -49529,25 +49430,25 @@
     </row>
     <row r="490">
       <c r="A490" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B490" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B490" s="3" t="s">
+      <c r="C490" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C490" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D490" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E490" s="4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F490" s="5" t="s">
         <v>1755</v>
       </c>
-      <c r="E490" s="4" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F490" s="5" t="s">
+      <c r="G490" s="5" t="s">
         <v>1756</v>
-      </c>
-      <c r="G490" s="5" t="s">
-        <v>1757</v>
       </c>
       <c r="H490" s="5" t="s">
         <v>63</v>
@@ -49607,19 +49508,19 @@
     </row>
     <row r="491">
       <c r="A491" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B491" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B491" s="3" t="s">
+      <c r="C491" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C491" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D491" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E491" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F491" s="5" t="s">
         <v>1091</v>
@@ -49685,19 +49586,19 @@
     </row>
     <row r="492">
       <c r="A492" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B492" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="B492" s="3" t="s">
+      <c r="C492" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C492" s="3" t="s">
-        <v>1730</v>
-      </c>
       <c r="D492" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="F492" s="5" t="s">
         <v>1091</v>
@@ -58763,7 +58664,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{74A0E0BF-BD88-4654-8F37-D01D01158C83}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BDA3A827-4040-41B6-B77E-27D7BCC77D1E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$BF$253">
         <filterColumn colId="4">
           <filters>
@@ -58895,10 +58796,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1760</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="2">
@@ -58906,7 +58807,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="3">
@@ -58914,7 +58815,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="4">
@@ -58922,7 +58823,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="5">
@@ -58930,7 +58831,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="6">
@@ -58938,7 +58839,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="7">
@@ -58946,7 +58847,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="8">
@@ -58954,7 +58855,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="9">
@@ -58962,7 +58863,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="10">
@@ -58970,7 +58871,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="11">
@@ -58978,7 +58879,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="12">
@@ -58986,7 +58887,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="13">
@@ -58994,7 +58895,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="14">
@@ -59002,7 +58903,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="15">
@@ -59010,7 +58911,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="16">
@@ -59018,7 +58919,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="17">
@@ -59026,7 +58927,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="18">
@@ -59034,7 +58935,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="19">
@@ -59042,7 +58943,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="20">
@@ -59050,7 +58951,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="21">
@@ -59058,7 +58959,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="22">
@@ -59066,7 +58967,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="23">
@@ -59074,7 +58975,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="24">
@@ -59082,7 +58983,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="25">
@@ -59090,7 +58991,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="26">
@@ -59098,7 +58999,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="27">
@@ -59106,7 +59007,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="28">
@@ -59114,7 +59015,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="29">
@@ -59122,7 +59023,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="30">
@@ -59130,7 +59031,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="31">
@@ -59138,7 +59039,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="32">
@@ -59146,7 +59047,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="33">
@@ -59154,7 +59055,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="34">
@@ -59162,7 +59063,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="35">
@@ -59170,7 +59071,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="36">
@@ -59178,7 +59079,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="37">
@@ -59186,7 +59087,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="38">
@@ -59194,7 +59095,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="39">
@@ -59202,7 +59103,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="40">
@@ -59210,7 +59111,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="41">
@@ -59218,7 +59119,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="42">
@@ -59226,7 +59127,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="43">
@@ -59234,7 +59135,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="44">
@@ -59242,7 +59143,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="45">
@@ -59250,7 +59151,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="46">
@@ -59258,7 +59159,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="47">
@@ -59266,7 +59167,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="48">
@@ -59274,7 +59175,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="49">
@@ -59282,7 +59183,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="50">
@@ -59290,7 +59191,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="51">
@@ -59298,7 +59199,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="52">
@@ -59306,7 +59207,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="53">
@@ -59314,7 +59215,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="54">
@@ -59322,7 +59223,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="55">
@@ -59330,7 +59231,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="56">
@@ -59338,7 +59239,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="57">
@@ -59346,7 +59247,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
   </sheetData>
